--- a/doc/用户故事.xlsx
+++ b/doc/用户故事.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE27360-A672-4A65-A73E-106A14B76FF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD2C28-C683-41A5-ACFD-3CA250513D75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>引用编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A06BE1-3323-4396-8D33-FBC5B20552E4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1172,9 +1172,6 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
